--- a/data/OpioidRxRateByState_Merge.xlsx
+++ b/data/OpioidRxRateByState_Merge.xlsx
@@ -1,519 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="qiusheng"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr/>
-  <extLst>
-    <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1570548361" val="970" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1570548361" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1570548361" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1570548361"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>State ABBR</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>Alaska</t>
-  </si>
-  <si>
-    <t>AK</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>Delaware</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>District of Columbia</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>FL</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>HI</t>
-  </si>
-  <si>
-    <t>Idaho</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>IA</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>KS</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>KY</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>Maine</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>MI</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>MO</t>
-  </si>
-  <si>
-    <t>Montana</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>NV</t>
-  </si>
-  <si>
-    <t>New Hampshire</t>
-  </si>
-  <si>
-    <t>NH</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
-    <t>NJ</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>NM</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>North Dakota</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>OH</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>Rhode Island</t>
-  </si>
-  <si>
-    <t>RI</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>South Dakota</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>TN</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>UT</t>
-  </si>
-  <si>
-    <t>Vermont</t>
-  </si>
-  <si>
-    <t>VT</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>VA</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>WA</t>
-  </si>
-  <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t>WV</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>WI</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>WY</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;$&quot;;[Red]\-#,##0.00\ &quot;$&quot;"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;$&quot;_-;\-* #,##0\ &quot;$&quot;_-;_-* &quot;-&quot;\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
-  </numFmts>
-  <fonts count="3">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1570548361" ulstyle="none" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
+      <scheme val="minor"/>
     </font>
     <font>
-      <name val="Basic Sans"/>
-      <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1570548361" ulstyle="none" kern="1">
-            <pm:latin face="Basic Sans" sz="200" lang="default"/>
-            <pm:cs face="Basic Roman" sz="200" lang="default"/>
-            <pm:ea face="Basic Roman" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Basic Sans"/>
-      <family val="1"/>
-      <b/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1570548361" ulstyle="none" kern="1">
-            <pm:latin face="Basic Sans" sz="200" lang="default" weight="bold"/>
-            <pm:cs face="Basic Roman" sz="200" lang="default" weight="bold"/>
-            <pm:ea face="Basic Roman" sz="200" lang="default" weight="bold"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
+      <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
   </fills>
   <borders count="2">
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1570548361"/>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1570548361">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0"/>
-  <extLst>
-    <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1570548361" count="1">
-        <pm:charStyle name="Normal" fontId="0" Id="1"/>
-      </pm:charStyles>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -528,10 +80,10 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -563,11 +115,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface="Basic Roman"/>
-        <a:cs typeface="Basic Roman"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -737,133 +347,139 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr>
-        <a:prstTxWarp prst="textNoShape">
-          <a:avLst/>
-        </a:prstTxWarp>
-        <a:noAutofit/>
-      </a:bodyPr>
-      <a:lstStyle>
-        <a:defPPr>
-          <a:defRPr/>
-        </a:defPPr>
-      </a:lstStyle>
-      <a:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.40"/>
-  <cols>
-    <col min="15" max="15" width="9.303571" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>State</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>State ABBR</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>115.599999999999994</v>
+        <v>115.6</v>
       </c>
       <c r="D2" t="n">
-        <v>120.299999999999997</v>
+        <v>120.3</v>
       </c>
       <c r="E2" t="n">
-        <v>126.099999999999994</v>
+        <v>126.1</v>
       </c>
       <c r="F2" t="n">
-        <v>131.599999999999994</v>
+        <v>131.6</v>
       </c>
       <c r="G2" t="n">
-        <v>134.300000000000011</v>
+        <v>134.3</v>
       </c>
       <c r="H2" t="n">
-        <v>136.599999999999994</v>
+        <v>136.6</v>
       </c>
       <c r="I2" t="n">
-        <v>143.800000000000011</v>
+        <v>143.8</v>
       </c>
       <c r="J2" t="n">
-        <v>142.400000000000006</v>
+        <v>142.4</v>
       </c>
       <c r="K2" t="n">
-        <v>135.199999999999989</v>
+        <v>135.2</v>
       </c>
       <c r="L2" t="n">
         <v>125</v>
@@ -872,192 +488,208 @@
         <v>121</v>
       </c>
       <c r="N2" t="n">
-        <v>107.200000000000003</v>
+        <v>107.2</v>
       </c>
       <c r="O2" t="n">
-        <v>128.258333333333411</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
+        <v>128.2583333333334</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Alaska</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AK</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>63.3999999999999986</v>
+        <v>63.4</v>
       </c>
       <c r="D3" t="n">
-        <v>66.5999999999999943</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E3" t="n">
         <v>68.5</v>
       </c>
       <c r="F3" t="n">
-        <v>67.2999999999999972</v>
+        <v>67.3</v>
       </c>
       <c r="G3" t="n">
-        <v>68.4000000000000057</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>68</v>
       </c>
       <c r="I3" t="n">
-        <v>66.7999999999999972</v>
+        <v>66.8</v>
       </c>
       <c r="J3" t="n">
-        <v>63.7000000000000028</v>
+        <v>63.7</v>
       </c>
       <c r="K3" t="n">
-        <v>62.7000000000000028</v>
+        <v>62.7</v>
       </c>
       <c r="L3" t="n">
-        <v>60.7999999999999972</v>
+        <v>60.8</v>
       </c>
       <c r="M3" t="n">
-        <v>58.8999999999999986</v>
+        <v>58.9</v>
       </c>
       <c r="N3" t="n">
         <v>52</v>
       </c>
       <c r="O3" t="n">
-        <v>63.9249999999999972</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
+        <v>63.925</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Arizona</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AZ</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>74.2999999999999972</v>
+        <v>74.3</v>
       </c>
       <c r="D4" t="n">
-        <v>77.7999999999999972</v>
+        <v>77.8</v>
       </c>
       <c r="E4" t="n">
-        <v>80.9000000000000057</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>84.2000000000000028</v>
+        <v>84.2</v>
       </c>
       <c r="G4" t="n">
         <v>88.5</v>
       </c>
       <c r="H4" t="n">
-        <v>88.5999999999999943</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>85.2999999999999972</v>
+        <v>85.3</v>
       </c>
       <c r="J4" t="n">
-        <v>80.4000000000000057</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>79.7000000000000028</v>
+        <v>79.7</v>
       </c>
       <c r="L4" t="n">
         <v>75.5</v>
       </c>
       <c r="M4" t="n">
-        <v>70.2000000000000028</v>
+        <v>70.2</v>
       </c>
       <c r="N4" t="n">
-        <v>61.2000000000000028</v>
+        <v>61.2</v>
       </c>
       <c r="O4" t="n">
         <v>78.88333333333334</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Arkansas</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>98.2999999999999972</v>
+        <v>98.3</v>
       </c>
       <c r="D5" t="n">
-        <v>108.200000000000003</v>
+        <v>108.2</v>
       </c>
       <c r="E5" t="n">
-        <v>112.099999999999994</v>
+        <v>112.1</v>
       </c>
       <c r="F5" t="n">
         <v>116</v>
       </c>
       <c r="G5" t="n">
-        <v>120.799999999999997</v>
+        <v>120.8</v>
       </c>
       <c r="H5" t="n">
-        <v>115.200000000000003</v>
+        <v>115.2</v>
       </c>
       <c r="I5" t="n">
-        <v>121.799999999999997</v>
+        <v>121.8</v>
       </c>
       <c r="J5" t="n">
-        <v>120.900000000000006</v>
+        <v>120.9</v>
       </c>
       <c r="K5" t="n">
-        <v>123.200000000000003</v>
+        <v>123.2</v>
       </c>
       <c r="L5" t="n">
-        <v>117.200000000000003</v>
+        <v>117.2</v>
       </c>
       <c r="M5" t="n">
-        <v>114.599999999999994</v>
+        <v>114.6</v>
       </c>
       <c r="N5" t="n">
-        <v>105.400000000000006</v>
+        <v>105.4</v>
       </c>
       <c r="O5" t="n">
-        <v>114.474999999999994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
+        <v>114.475</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>51</v>
       </c>
       <c r="D6" t="n">
-        <v>53.6000000000000014</v>
+        <v>53.6</v>
       </c>
       <c r="E6" t="n">
-        <v>55.1000000000000014</v>
+        <v>55.1</v>
       </c>
       <c r="F6" t="n">
-        <v>55.6000000000000014</v>
+        <v>55.6</v>
       </c>
       <c r="G6" t="n">
-        <v>55.7999999999999972</v>
+        <v>55.8</v>
       </c>
       <c r="H6" t="n">
-        <v>55.8999999999999986</v>
+        <v>55.9</v>
       </c>
       <c r="I6" t="n">
-        <v>56.3999999999999986</v>
+        <v>56.4</v>
       </c>
       <c r="J6" t="n">
-        <v>54.3999999999999986</v>
+        <v>54.4</v>
       </c>
       <c r="K6" t="n">
-        <v>52.7000000000000028</v>
+        <v>52.7</v>
       </c>
       <c r="L6" t="n">
-        <v>47.7000000000000028</v>
+        <v>47.7</v>
       </c>
       <c r="M6" t="n">
-        <v>44.7999999999999972</v>
+        <v>44.8</v>
       </c>
       <c r="N6" t="n">
         <v>39.5</v>
@@ -1066,24 +698,28 @@
         <v>51.875</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Colorado</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>62.2000000000000028</v>
+        <v>62.2</v>
       </c>
       <c r="D7" t="n">
-        <v>65.9000000000000057</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>67.7000000000000028</v>
+        <v>67.7</v>
       </c>
       <c r="F7" t="n">
-        <v>69.7999999999999972</v>
+        <v>69.8</v>
       </c>
       <c r="G7" t="n">
         <v>72</v>
@@ -1095,154 +731,166 @@
         <v>73.5</v>
       </c>
       <c r="J7" t="n">
-        <v>71.2000000000000028</v>
+        <v>71.2</v>
       </c>
       <c r="K7" t="n">
-        <v>69.5999999999999943</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="L7" t="n">
-        <v>65.0999999999999943</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="M7" t="n">
-        <v>59.7999999999999972</v>
+        <v>59.8</v>
       </c>
       <c r="N7" t="n">
-        <v>52.8999999999999986</v>
+        <v>52.9</v>
       </c>
       <c r="O7" t="n">
-        <v>66.8916666666666657</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
+        <v>66.89166666666667</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Connecticut</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>64.7000000000000028</v>
+        <v>64.7</v>
       </c>
       <c r="D8" t="n">
         <v>67.5</v>
       </c>
       <c r="E8" t="n">
-        <v>68.7000000000000028</v>
+        <v>68.7</v>
       </c>
       <c r="F8" t="n">
-        <v>68.0999999999999943</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>68.5999999999999943</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>69.0999999999999943</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>69.2999999999999972</v>
+        <v>69.3</v>
       </c>
       <c r="J8" t="n">
-        <v>67.4000000000000057</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="K8" t="n">
         <v>66</v>
       </c>
       <c r="L8" t="n">
-        <v>62.2999999999999972</v>
+        <v>62.3</v>
       </c>
       <c r="M8" t="n">
-        <v>55.8999999999999986</v>
+        <v>55.9</v>
       </c>
       <c r="N8" t="n">
         <v>48</v>
       </c>
       <c r="O8" t="n">
-        <v>64.6333333333333258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
+        <v>64.63333333333333</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Delaware</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>86.5999999999999943</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>92.2999999999999972</v>
+        <v>92.3</v>
       </c>
       <c r="E9" t="n">
-        <v>95.4000000000000057</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F9" t="n">
         <v>97.5</v>
       </c>
       <c r="G9" t="n">
-        <v>101.099999999999994</v>
+        <v>101.1</v>
       </c>
       <c r="H9" t="n">
-        <v>99.7000000000000028</v>
+        <v>99.7</v>
       </c>
       <c r="I9" t="n">
         <v>94</v>
       </c>
       <c r="J9" t="n">
-        <v>92.7000000000000028</v>
+        <v>92.7</v>
       </c>
       <c r="K9" t="n">
         <v>91</v>
       </c>
       <c r="L9" t="n">
-        <v>84.4000000000000057</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="M9" t="n">
-        <v>79.2000000000000028</v>
+        <v>79.2</v>
       </c>
       <c r="N9" t="n">
-        <v>68.2999999999999972</v>
+        <v>68.3</v>
       </c>
       <c r="O9" t="n">
-        <v>90.1833333333333371</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
+        <v>90.18333333333334</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>District of Columbia</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>31.6999999999999993</v>
+        <v>31.7</v>
       </c>
       <c r="D10" t="n">
-        <v>41.2000000000000028</v>
+        <v>41.2</v>
       </c>
       <c r="E10" t="n">
         <v>34.5</v>
       </c>
       <c r="F10" t="n">
-        <v>34.3999999999999986</v>
+        <v>34.4</v>
       </c>
       <c r="G10" t="n">
-        <v>37.1000000000000014</v>
+        <v>37.1</v>
       </c>
       <c r="H10" t="n">
-        <v>39.7999999999999972</v>
+        <v>39.8</v>
       </c>
       <c r="I10" t="n">
-        <v>40.2999999999999972</v>
+        <v>40.3</v>
       </c>
       <c r="J10" t="n">
-        <v>41.1000000000000014</v>
+        <v>41.1</v>
       </c>
       <c r="K10" t="n">
-        <v>40.1000000000000014</v>
+        <v>40.1</v>
       </c>
       <c r="L10" t="n">
-        <v>35.7000000000000028</v>
+        <v>35.7</v>
       </c>
       <c r="M10" t="n">
         <v>32.5</v>
@@ -1251,368 +899,400 @@
         <v>28.5</v>
       </c>
       <c r="O10" t="n">
-        <v>36.4083333333333385</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
+        <v>36.40833333333334</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>79.7000000000000028</v>
+        <v>79.7</v>
       </c>
       <c r="D11" t="n">
-        <v>82.2000000000000028</v>
+        <v>82.2</v>
       </c>
       <c r="E11" t="n">
-        <v>84.2999999999999972</v>
+        <v>84.3</v>
       </c>
       <c r="F11" t="n">
-        <v>86.2999999999999972</v>
+        <v>86.3</v>
       </c>
       <c r="G11" t="n">
-        <v>87.5999999999999943</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>83.5</v>
       </c>
       <c r="I11" t="n">
-        <v>75.9000000000000057</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="J11" t="n">
         <v>73.5</v>
       </c>
       <c r="K11" t="n">
-        <v>71.4000000000000057</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="L11" t="n">
-        <v>67.0999999999999943</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>66.5999999999999943</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="N11" t="n">
-        <v>60.8999999999999986</v>
+        <v>60.9</v>
       </c>
       <c r="O11" t="n">
-        <v>76.5833333333333286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
+        <v>76.58333333333333</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>79.7999999999999972</v>
+        <v>79.8</v>
       </c>
       <c r="D12" t="n">
         <v>82.5</v>
       </c>
       <c r="E12" t="n">
-        <v>86.2999999999999972</v>
+        <v>86.3</v>
       </c>
       <c r="F12" t="n">
-        <v>88.2000000000000028</v>
+        <v>88.2</v>
       </c>
       <c r="G12" t="n">
-        <v>90.2000000000000028</v>
+        <v>90.2</v>
       </c>
       <c r="H12" t="n">
-        <v>88.5999999999999943</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>89.4000000000000057</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>86.5999999999999943</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>83.7999999999999972</v>
+        <v>83.8</v>
       </c>
       <c r="L12" t="n">
-        <v>79.4000000000000057</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="M12" t="n">
-        <v>77.7999999999999972</v>
+        <v>77.8</v>
       </c>
       <c r="N12" t="n">
-        <v>70.9000000000000057</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="O12" t="n">
-        <v>83.6249999999999858</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
+        <v>83.62499999999999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HI</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>42.2999999999999972</v>
+        <v>42.3</v>
       </c>
       <c r="D13" t="n">
         <v>44.5</v>
       </c>
       <c r="E13" t="n">
-        <v>46.6000000000000014</v>
+        <v>46.6</v>
       </c>
       <c r="F13" t="n">
-        <v>47.7999999999999972</v>
+        <v>47.8</v>
       </c>
       <c r="G13" t="n">
-        <v>50.1000000000000014</v>
+        <v>50.1</v>
       </c>
       <c r="H13" t="n">
-        <v>50.1000000000000014</v>
+        <v>50.1</v>
       </c>
       <c r="I13" t="n">
-        <v>50.3999999999999986</v>
+        <v>50.4</v>
       </c>
       <c r="J13" t="n">
-        <v>49.3999999999999986</v>
+        <v>49.4</v>
       </c>
       <c r="K13" t="n">
-        <v>47.7000000000000028</v>
+        <v>47.7</v>
       </c>
       <c r="L13" t="n">
-        <v>44.2999999999999972</v>
+        <v>44.3</v>
       </c>
       <c r="M13" t="n">
-        <v>41.8999999999999986</v>
+        <v>41.9</v>
       </c>
       <c r="N13" t="n">
         <v>37</v>
       </c>
       <c r="O13" t="n">
-        <v>46.0083333333333329</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
+        <v>46.00833333333333</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Idaho</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>75.5999999999999943</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>78.7999999999999972</v>
+        <v>78.8</v>
       </c>
       <c r="E14" t="n">
-        <v>82.7000000000000028</v>
+        <v>82.7</v>
       </c>
       <c r="F14" t="n">
-        <v>85.2000000000000028</v>
+        <v>85.2</v>
       </c>
       <c r="G14" t="n">
-        <v>88.5999999999999943</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>91.4000000000000057</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="I14" t="n">
         <v>92</v>
       </c>
       <c r="J14" t="n">
-        <v>89.2000000000000028</v>
+        <v>89.2</v>
       </c>
       <c r="K14" t="n">
-        <v>87.4000000000000057</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="L14" t="n">
-        <v>81.9000000000000057</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="M14" t="n">
-        <v>77.5999999999999943</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="N14" t="n">
-        <v>70.2999999999999972</v>
+        <v>70.3</v>
       </c>
       <c r="O14" t="n">
-        <v>83.3916666666666657</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
+        <v>83.39166666666667</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>55.6000000000000014</v>
+        <v>55.6</v>
       </c>
       <c r="D15" t="n">
-        <v>59.2000000000000028</v>
+        <v>59.2</v>
       </c>
       <c r="E15" t="n">
-        <v>60.2000000000000028</v>
+        <v>60.2</v>
       </c>
       <c r="F15" t="n">
         <v>61</v>
       </c>
       <c r="G15" t="n">
-        <v>63.1000000000000014</v>
+        <v>63.1</v>
       </c>
       <c r="H15" t="n">
-        <v>64.2999999999999972</v>
+        <v>64.3</v>
       </c>
       <c r="I15" t="n">
-        <v>66.0999999999999943</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>63.7000000000000028</v>
+        <v>63.7</v>
       </c>
       <c r="K15" t="n">
-        <v>62.2999999999999972</v>
+        <v>62.3</v>
       </c>
       <c r="L15" t="n">
-        <v>59.1000000000000014</v>
+        <v>59.1</v>
       </c>
       <c r="M15" t="n">
-        <v>56.7999999999999972</v>
+        <v>56.8</v>
       </c>
       <c r="N15" t="n">
-        <v>51.1000000000000014</v>
+        <v>51.1</v>
       </c>
       <c r="O15" t="n">
-        <v>60.2083333333333428</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
+        <v>60.20833333333334</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>94.2999999999999972</v>
+        <v>94.3</v>
       </c>
       <c r="D16" t="n">
-        <v>99.7000000000000028</v>
+        <v>99.7</v>
       </c>
       <c r="E16" t="n">
-        <v>103.299999999999997</v>
+        <v>103.3</v>
       </c>
       <c r="F16" t="n">
-        <v>105.599999999999994</v>
+        <v>105.6</v>
       </c>
       <c r="G16" t="n">
-        <v>107.099999999999994</v>
+        <v>107.1</v>
       </c>
       <c r="H16" t="n">
-        <v>106.700000000000003</v>
+        <v>106.7</v>
       </c>
       <c r="I16" t="n">
         <v>110.5</v>
       </c>
       <c r="J16" t="n">
-        <v>106.299999999999997</v>
+        <v>106.3</v>
       </c>
       <c r="K16" t="n">
-        <v>96.7000000000000028</v>
+        <v>96.7</v>
       </c>
       <c r="L16" t="n">
-        <v>89.0999999999999943</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="M16" t="n">
-        <v>83.9000000000000057</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="N16" t="n">
-        <v>74.2000000000000028</v>
+        <v>74.2</v>
       </c>
       <c r="O16" t="n">
-        <v>98.1166666666666742</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
+        <v>98.11666666666667</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Iowa</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>IA</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>59.2999999999999972</v>
+        <v>59.3</v>
       </c>
       <c r="D17" t="n">
-        <v>57.1000000000000014</v>
+        <v>57.1</v>
       </c>
       <c r="E17" t="n">
-        <v>59.1000000000000014</v>
+        <v>59.1</v>
       </c>
       <c r="F17" t="n">
-        <v>60.3999999999999986</v>
+        <v>60.4</v>
       </c>
       <c r="G17" t="n">
-        <v>62.2999999999999972</v>
+        <v>62.3</v>
       </c>
       <c r="H17" t="n">
         <v>64</v>
       </c>
       <c r="I17" t="n">
-        <v>74.0999999999999943</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>72.2000000000000028</v>
+        <v>72.2</v>
       </c>
       <c r="K17" t="n">
-        <v>72.2999999999999972</v>
+        <v>72.3</v>
       </c>
       <c r="L17" t="n">
-        <v>68.5999999999999943</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="M17" t="n">
         <v>64</v>
       </c>
       <c r="N17" t="n">
-        <v>56.3999999999999986</v>
+        <v>56.4</v>
       </c>
       <c r="O17" t="n">
-        <v>64.1499999999999915</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
+        <v>64.14999999999999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Kansas</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>KS</t>
+        </is>
       </c>
       <c r="C18" t="n">
         <v>77.5</v>
       </c>
       <c r="D18" t="n">
-        <v>80.5999999999999943</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>82.7000000000000028</v>
+        <v>82.7</v>
       </c>
       <c r="F18" t="n">
-        <v>82.7999999999999972</v>
+        <v>82.8</v>
       </c>
       <c r="G18" t="n">
-        <v>86.0999999999999943</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>87.7999999999999972</v>
+        <v>87.8</v>
       </c>
       <c r="I18" t="n">
-        <v>90.2999999999999972</v>
+        <v>90.3</v>
       </c>
       <c r="J18" t="n">
-        <v>88.7000000000000028</v>
+        <v>88.7</v>
       </c>
       <c r="K18" t="n">
         <v>86.5</v>
@@ -1621,33 +1301,37 @@
         <v>80.5</v>
       </c>
       <c r="M18" t="n">
-        <v>76.9000000000000057</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="N18" t="n">
-        <v>69.7999999999999972</v>
+        <v>69.8</v>
       </c>
       <c r="O18" t="n">
-        <v>82.5166666666666657</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
+        <v>82.51666666666667</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Kentucky</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
       </c>
       <c r="C19" t="n">
-        <v>122.599999999999994</v>
+        <v>122.6</v>
       </c>
       <c r="D19" t="n">
-        <v>130.800000000000011</v>
+        <v>130.8</v>
       </c>
       <c r="E19" t="n">
-        <v>136.599999999999994</v>
+        <v>136.6</v>
       </c>
       <c r="F19" t="n">
-        <v>135.199999999999989</v>
+        <v>135.2</v>
       </c>
       <c r="G19" t="n">
         <v>136.5</v>
@@ -1656,245 +1340,265 @@
         <v>137</v>
       </c>
       <c r="I19" t="n">
-        <v>127.900000000000006</v>
+        <v>127.9</v>
       </c>
       <c r="J19" t="n">
-        <v>111.700000000000003</v>
+        <v>111.7</v>
       </c>
       <c r="K19" t="n">
         <v>110</v>
       </c>
       <c r="L19" t="n">
-        <v>102.599999999999994</v>
+        <v>102.6</v>
       </c>
       <c r="M19" t="n">
-        <v>97.2000000000000028</v>
+        <v>97.2</v>
       </c>
       <c r="N19" t="n">
-        <v>86.7999999999999972</v>
+        <v>86.8</v>
       </c>
       <c r="O19" t="n">
-        <v>119.575000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
+        <v>119.575</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Louisiana</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>LA</t>
+        </is>
       </c>
       <c r="C20" t="n">
-        <v>109.200000000000003</v>
+        <v>109.2</v>
       </c>
       <c r="D20" t="n">
-        <v>110.099999999999994</v>
+        <v>110.1</v>
       </c>
       <c r="E20" t="n">
-        <v>113.700000000000003</v>
+        <v>113.7</v>
       </c>
       <c r="F20" t="n">
         <v>113</v>
       </c>
       <c r="G20" t="n">
-        <v>112.599999999999994</v>
+        <v>112.6</v>
       </c>
       <c r="H20" t="n">
-        <v>111.700000000000003</v>
+        <v>111.7</v>
       </c>
       <c r="I20" t="n">
         <v>113</v>
       </c>
       <c r="J20" t="n">
-        <v>112.400000000000006</v>
+        <v>112.4</v>
       </c>
       <c r="K20" t="n">
-        <v>108.900000000000006</v>
+        <v>108.9</v>
       </c>
       <c r="L20" t="n">
-        <v>100.400000000000006</v>
+        <v>100.4</v>
       </c>
       <c r="M20" t="n">
-        <v>98.0999999999999943</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="N20" t="n">
         <v>89.5</v>
       </c>
       <c r="O20" t="n">
-        <v>107.716666666666697</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" t="s">
-        <v>54</v>
+        <v>107.7166666666667</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Maine</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ME</t>
+        </is>
       </c>
       <c r="C21" t="n">
-        <v>83.5999999999999943</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>85.4000000000000057</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>88.7000000000000028</v>
+        <v>88.7</v>
       </c>
       <c r="F21" t="n">
-        <v>87.9000000000000057</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>92.7999999999999972</v>
+        <v>92.8</v>
       </c>
       <c r="H21" t="n">
-        <v>93.0999999999999943</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>89.7000000000000028</v>
+        <v>89.7</v>
       </c>
       <c r="J21" t="n">
-        <v>85.9000000000000057</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>82.4000000000000057</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="L21" t="n">
         <v>76.5</v>
       </c>
       <c r="M21" t="n">
-        <v>66.9000000000000057</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="N21" t="n">
-        <v>55.7000000000000028</v>
+        <v>55.7</v>
       </c>
       <c r="O21" t="n">
         <v>82.38333333333334</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
-      <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>56</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Maryland</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
       </c>
       <c r="C22" t="n">
-        <v>60.1000000000000014</v>
+        <v>60.1</v>
       </c>
       <c r="D22" t="n">
-        <v>63.2999999999999972</v>
+        <v>63.3</v>
       </c>
       <c r="E22" t="n">
         <v>65.5</v>
       </c>
       <c r="F22" t="n">
-        <v>66.9000000000000057</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>71.2000000000000028</v>
+        <v>71.2</v>
       </c>
       <c r="H22" t="n">
-        <v>72.9000000000000057</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>72.2000000000000028</v>
+        <v>72.2</v>
       </c>
       <c r="J22" t="n">
         <v>69</v>
       </c>
       <c r="K22" t="n">
-        <v>67.5999999999999943</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="L22" t="n">
         <v>63</v>
       </c>
       <c r="M22" t="n">
-        <v>58.7000000000000028</v>
+        <v>58.7</v>
       </c>
       <c r="N22" t="n">
-        <v>51.7000000000000028</v>
+        <v>51.7</v>
       </c>
       <c r="O22" t="n">
-        <v>65.1750000000000114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" t="s">
-        <v>58</v>
+        <v>65.17500000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Massachusetts</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
       </c>
       <c r="C23" t="n">
         <v>66</v>
       </c>
       <c r="D23" t="n">
-        <v>68.2000000000000028</v>
+        <v>68.2</v>
       </c>
       <c r="E23" t="n">
-        <v>69.2000000000000028</v>
+        <v>69.2</v>
       </c>
       <c r="F23" t="n">
-        <v>68.9000000000000057</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>67.9000000000000057</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>65.9000000000000057</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>65.7000000000000028</v>
+        <v>65.7</v>
       </c>
       <c r="J23" t="n">
         <v>63</v>
       </c>
       <c r="K23" t="n">
-        <v>59.6000000000000014</v>
+        <v>59.6</v>
       </c>
       <c r="L23" t="n">
         <v>54</v>
       </c>
       <c r="M23" t="n">
-        <v>47.1000000000000014</v>
+        <v>47.1</v>
       </c>
       <c r="N23" t="n">
-        <v>40.1000000000000014</v>
+        <v>40.1</v>
       </c>
       <c r="O23" t="n">
-        <v>61.2999999999999972</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" t="s">
-        <v>60</v>
+        <v>61.3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Michigan</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
       </c>
       <c r="C24" t="n">
-        <v>80.2000000000000028</v>
+        <v>80.2</v>
       </c>
       <c r="D24" t="n">
-        <v>85.5999999999999943</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>89.9000000000000057</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>91.5999999999999943</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="G24" t="n">
         <v>96</v>
       </c>
       <c r="H24" t="n">
-        <v>98.7999999999999972</v>
+        <v>98.8</v>
       </c>
       <c r="I24" t="n">
-        <v>100.700000000000003</v>
+        <v>100.7</v>
       </c>
       <c r="J24" t="n">
-        <v>98.9000000000000057</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="K24" t="n">
         <v>98</v>
@@ -1903,33 +1607,37 @@
         <v>90.5</v>
       </c>
       <c r="M24" t="n">
-        <v>84.9000000000000057</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="N24" t="n">
-        <v>74.2000000000000028</v>
+        <v>74.2</v>
       </c>
       <c r="O24" t="n">
-        <v>90.7750000000000057</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" t="s">
-        <v>62</v>
+        <v>90.77499999999999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
       </c>
       <c r="C25" t="n">
-        <v>50.2999999999999972</v>
+        <v>50.3</v>
       </c>
       <c r="D25" t="n">
-        <v>53.7000000000000028</v>
+        <v>53.7</v>
       </c>
       <c r="E25" t="n">
         <v>56.5</v>
       </c>
       <c r="F25" t="n">
-        <v>58.6000000000000014</v>
+        <v>58.6</v>
       </c>
       <c r="G25" t="n">
         <v>59</v>
@@ -1938,89 +1646,97 @@
         <v>60</v>
       </c>
       <c r="I25" t="n">
-        <v>60.8999999999999986</v>
+        <v>60.9</v>
       </c>
       <c r="J25" t="n">
-        <v>58.2999999999999972</v>
+        <v>58.3</v>
       </c>
       <c r="K25" t="n">
-        <v>56.6000000000000014</v>
+        <v>56.6</v>
       </c>
       <c r="L25" t="n">
-        <v>52.1000000000000014</v>
+        <v>52.1</v>
       </c>
       <c r="M25" t="n">
-        <v>46.8999999999999986</v>
+        <v>46.9</v>
       </c>
       <c r="N25" t="n">
         <v>41</v>
       </c>
       <c r="O25" t="n">
-        <v>54.4916666666666671</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" t="s">
-        <v>64</v>
+        <v>54.49166666666667</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Mississippi</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
       </c>
       <c r="C26" t="n">
-        <v>102.700000000000003</v>
+        <v>102.7</v>
       </c>
       <c r="D26" t="n">
-        <v>109.900000000000006</v>
+        <v>109.9</v>
       </c>
       <c r="E26" t="n">
-        <v>113.200000000000003</v>
+        <v>113.2</v>
       </c>
       <c r="F26" t="n">
-        <v>117.299999999999997</v>
+        <v>117.3</v>
       </c>
       <c r="G26" t="n">
-        <v>118.099999999999994</v>
+        <v>118.1</v>
       </c>
       <c r="H26" t="n">
-        <v>117.200000000000003</v>
+        <v>117.2</v>
       </c>
       <c r="I26" t="n">
-        <v>121.799999999999997</v>
+        <v>121.8</v>
       </c>
       <c r="J26" t="n">
-        <v>119.599999999999994</v>
+        <v>119.6</v>
       </c>
       <c r="K26" t="n">
-        <v>116.299999999999997</v>
+        <v>116.3</v>
       </c>
       <c r="L26" t="n">
-        <v>110.900000000000006</v>
+        <v>110.9</v>
       </c>
       <c r="M26" t="n">
-        <v>105.599999999999994</v>
+        <v>105.6</v>
       </c>
       <c r="N26" t="n">
-        <v>92.9000000000000057</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="O26" t="n">
         <v>112.125</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
-      <c r="A27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" t="s">
-        <v>66</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Missouri</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
       </c>
       <c r="C27" t="n">
         <v>80.5</v>
       </c>
       <c r="D27" t="n">
-        <v>84.2999999999999972</v>
+        <v>84.3</v>
       </c>
       <c r="E27" t="n">
-        <v>86.7999999999999972</v>
+        <v>86.8</v>
       </c>
       <c r="F27" t="n">
         <v>88.5</v>
@@ -2029,136 +1745,148 @@
         <v>91</v>
       </c>
       <c r="H27" t="n">
-        <v>91.5999999999999943</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="I27" t="n">
-        <v>95.4000000000000057</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2999999999999972</v>
+        <v>93.3</v>
       </c>
       <c r="K27" t="n">
-        <v>90.7000000000000028</v>
+        <v>90.7</v>
       </c>
       <c r="L27" t="n">
         <v>84.5</v>
       </c>
       <c r="M27" t="n">
-        <v>80.4000000000000057</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="N27" t="n">
-        <v>71.7999999999999972</v>
+        <v>71.8</v>
       </c>
       <c r="O27" t="n">
-        <v>86.5666666666666629</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" t="s">
-        <v>68</v>
+        <v>86.56666666666666</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Montana</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
       </c>
       <c r="C28" t="n">
-        <v>79.0999999999999943</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>81.0999999999999943</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>85.2999999999999972</v>
+        <v>85.3</v>
       </c>
       <c r="F28" t="n">
-        <v>85.7999999999999972</v>
+        <v>85.8</v>
       </c>
       <c r="G28" t="n">
-        <v>87.2000000000000028</v>
+        <v>87.2</v>
       </c>
       <c r="H28" t="n">
-        <v>85.2999999999999972</v>
+        <v>85.3</v>
       </c>
       <c r="I28" t="n">
-        <v>87.7000000000000028</v>
+        <v>87.7</v>
       </c>
       <c r="J28" t="n">
-        <v>84.2000000000000028</v>
+        <v>84.2</v>
       </c>
       <c r="K28" t="n">
-        <v>80.0999999999999943</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="L28" t="n">
-        <v>73.2999999999999972</v>
+        <v>73.3</v>
       </c>
       <c r="M28" t="n">
-        <v>69.7999999999999972</v>
+        <v>69.8</v>
       </c>
       <c r="N28" t="n">
-        <v>61.1000000000000014</v>
+        <v>61.1</v>
       </c>
       <c r="O28" t="n">
-        <v>79.9999999999999858</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" t="s">
-        <v>70</v>
+        <v>79.99999999999999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Nebraska</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>NE</t>
+        </is>
       </c>
       <c r="C29" t="n">
-        <v>64.2999999999999972</v>
+        <v>64.3</v>
       </c>
       <c r="D29" t="n">
-        <v>65.0999999999999943</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>66.2000000000000028</v>
+        <v>66.2</v>
       </c>
       <c r="F29" t="n">
-        <v>66.4000000000000057</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="G29" t="n">
         <v>69</v>
       </c>
       <c r="H29" t="n">
-        <v>68.7999999999999972</v>
+        <v>68.8</v>
       </c>
       <c r="I29" t="n">
-        <v>73.2000000000000028</v>
+        <v>73.2</v>
       </c>
       <c r="J29" t="n">
-        <v>71.2999999999999972</v>
+        <v>71.3</v>
       </c>
       <c r="K29" t="n">
-        <v>70.0999999999999943</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="L29" t="n">
         <v>65.5</v>
       </c>
       <c r="M29" t="n">
-        <v>62.7999999999999972</v>
+        <v>62.8</v>
       </c>
       <c r="N29" t="n">
-        <v>56.6000000000000014</v>
+        <v>56.6</v>
       </c>
       <c r="O29" t="n">
-        <v>66.6083333333333343</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" t="s">
-        <v>72</v>
+        <v>66.60833333333333</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Nevada</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
       </c>
       <c r="C30" t="n">
-        <v>87.7000000000000028</v>
+        <v>87.7</v>
       </c>
       <c r="D30" t="n">
-        <v>90.2000000000000028</v>
+        <v>90.2</v>
       </c>
       <c r="E30" t="n">
         <v>97</v>
@@ -2167,39 +1895,43 @@
         <v>94</v>
       </c>
       <c r="G30" t="n">
-        <v>97.2999999999999972</v>
+        <v>97.3</v>
       </c>
       <c r="H30" t="n">
-        <v>100.299999999999997</v>
+        <v>100.3</v>
       </c>
       <c r="I30" t="n">
-        <v>98.9000000000000057</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="J30" t="n">
-        <v>91.0999999999999943</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>90.0999999999999943</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="L30" t="n">
-        <v>85.4000000000000057</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="M30" t="n">
-        <v>80.7000000000000028</v>
+        <v>80.7</v>
       </c>
       <c r="N30" t="n">
         <v>73</v>
       </c>
       <c r="O30" t="n">
-        <v>90.4749999999999943</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" t="s">
-        <v>74</v>
+        <v>90.47500000000001</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>New Hampshire</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>NH</t>
+        </is>
       </c>
       <c r="C31" t="n">
         <v>75</v>
@@ -2208,57 +1940,61 @@
         <v>78.5</v>
       </c>
       <c r="E31" t="n">
-        <v>81.7000000000000028</v>
+        <v>81.7</v>
       </c>
       <c r="F31" t="n">
         <v>81.5</v>
       </c>
       <c r="G31" t="n">
-        <v>81.5999999999999943</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="H31" t="n">
-        <v>80.9000000000000057</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>83.7000000000000028</v>
+        <v>83.7</v>
       </c>
       <c r="J31" t="n">
         <v>82</v>
       </c>
       <c r="K31" t="n">
-        <v>79.5999999999999943</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="L31" t="n">
-        <v>74.7999999999999972</v>
+        <v>74.8</v>
       </c>
       <c r="M31" t="n">
-        <v>64.2999999999999972</v>
+        <v>64.3</v>
       </c>
       <c r="N31" t="n">
-        <v>52.7999999999999972</v>
+        <v>52.8</v>
       </c>
       <c r="O31" t="n">
         <v>76.36666666666666</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
-      <c r="A32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" t="s">
-        <v>76</v>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>New Jersey</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
       </c>
       <c r="C32" t="n">
-        <v>54.7000000000000028</v>
+        <v>54.7</v>
       </c>
       <c r="D32" t="n">
-        <v>57.2000000000000028</v>
+        <v>57.2</v>
       </c>
       <c r="E32" t="n">
         <v>59.5</v>
       </c>
       <c r="F32" t="n">
-        <v>59.8999999999999986</v>
+        <v>59.9</v>
       </c>
       <c r="G32" t="n">
         <v>61</v>
@@ -2267,89 +2003,97 @@
         <v>61.5</v>
       </c>
       <c r="I32" t="n">
-        <v>60.1000000000000014</v>
+        <v>60.1</v>
       </c>
       <c r="J32" t="n">
-        <v>58.2999999999999972</v>
+        <v>58.3</v>
       </c>
       <c r="K32" t="n">
-        <v>57.2000000000000028</v>
+        <v>57.2</v>
       </c>
       <c r="L32" t="n">
         <v>56</v>
       </c>
       <c r="M32" t="n">
-        <v>52.6000000000000014</v>
+        <v>52.6</v>
       </c>
       <c r="N32" t="n">
-        <v>44.2000000000000028</v>
+        <v>44.2</v>
       </c>
       <c r="O32" t="n">
-        <v>56.8500000000000227</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" t="s">
-        <v>78</v>
+        <v>56.85000000000002</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>New Mexico</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
       </c>
       <c r="C33" t="n">
-        <v>61.7999999999999972</v>
+        <v>61.8</v>
       </c>
       <c r="D33" t="n">
         <v>69</v>
       </c>
       <c r="E33" t="n">
-        <v>71.4000000000000057</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>75.2999999999999972</v>
+        <v>75.3</v>
       </c>
       <c r="G33" t="n">
-        <v>81.9000000000000057</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="H33" t="n">
-        <v>81.5999999999999943</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="I33" t="n">
-        <v>76.7999999999999972</v>
+        <v>76.8</v>
       </c>
       <c r="J33" t="n">
-        <v>71.4000000000000057</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="K33" t="n">
         <v>71.5</v>
       </c>
       <c r="L33" t="n">
-        <v>69.7999999999999972</v>
+        <v>69.8</v>
       </c>
       <c r="M33" t="n">
-        <v>65.0999999999999943</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="N33" t="n">
-        <v>56.3999999999999986</v>
+        <v>56.4</v>
       </c>
       <c r="O33" t="n">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
-      <c r="A34" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" t="s">
-        <v>80</v>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
       </c>
       <c r="C34" t="n">
-        <v>44.2000000000000028</v>
+        <v>44.2</v>
       </c>
       <c r="D34" t="n">
-        <v>46.1000000000000014</v>
+        <v>46.1</v>
       </c>
       <c r="E34" t="n">
-        <v>48.3999999999999986</v>
+        <v>48.4</v>
       </c>
       <c r="F34" t="n">
         <v>49.5</v>
@@ -2358,66 +2102,70 @@
         <v>51</v>
       </c>
       <c r="H34" t="n">
-        <v>51.1000000000000014</v>
+        <v>51.1</v>
       </c>
       <c r="I34" t="n">
-        <v>51.7999999999999972</v>
+        <v>51.8</v>
       </c>
       <c r="J34" t="n">
-        <v>46.7000000000000028</v>
+        <v>46.7</v>
       </c>
       <c r="K34" t="n">
-        <v>43.8999999999999986</v>
+        <v>43.9</v>
       </c>
       <c r="L34" t="n">
-        <v>45.1000000000000014</v>
+        <v>45.1</v>
       </c>
       <c r="M34" t="n">
-        <v>42.7000000000000028</v>
+        <v>42.7</v>
       </c>
       <c r="N34" t="n">
-        <v>37.7999999999999972</v>
+        <v>37.8</v>
       </c>
       <c r="O34" t="n">
-        <v>46.5249999999999986</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" t="s">
-        <v>82</v>
+        <v>46.525</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>North Carolina</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
       </c>
       <c r="C35" t="n">
-        <v>85.2000000000000028</v>
+        <v>85.2</v>
       </c>
       <c r="D35" t="n">
         <v>87.5</v>
       </c>
       <c r="E35" t="n">
-        <v>88.5999999999999943</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>89.2999999999999972</v>
+        <v>89.3</v>
       </c>
       <c r="G35" t="n">
-        <v>93.0999999999999943</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="H35" t="n">
         <v>93.5</v>
       </c>
       <c r="I35" t="n">
-        <v>98.5999999999999943</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="J35" t="n">
-        <v>96.7000000000000028</v>
+        <v>96.7</v>
       </c>
       <c r="K35" t="n">
-        <v>93.7000000000000028</v>
+        <v>93.7</v>
       </c>
       <c r="L35" t="n">
-        <v>88.4000000000000057</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="M35" t="n">
         <v>82.5</v>
@@ -2426,77 +2174,85 @@
         <v>72</v>
       </c>
       <c r="O35" t="n">
-        <v>89.0916666666666544</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" t="s">
-        <v>84</v>
+        <v>89.09166666666665</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>North Dakota</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
       </c>
       <c r="C36" t="n">
         <v>56</v>
       </c>
       <c r="D36" t="n">
-        <v>59.2999999999999972</v>
+        <v>59.3</v>
       </c>
       <c r="E36" t="n">
-        <v>61.7000000000000028</v>
+        <v>61.7</v>
       </c>
       <c r="F36" t="n">
-        <v>60.2999999999999972</v>
+        <v>60.3</v>
       </c>
       <c r="G36" t="n">
         <v>63</v>
       </c>
       <c r="H36" t="n">
-        <v>61.2999999999999972</v>
+        <v>61.3</v>
       </c>
       <c r="I36" t="n">
-        <v>62.1000000000000014</v>
+        <v>62.1</v>
       </c>
       <c r="J36" t="n">
-        <v>60.1000000000000014</v>
+        <v>60.1</v>
       </c>
       <c r="K36" t="n">
-        <v>58.1000000000000014</v>
+        <v>58.1</v>
       </c>
       <c r="L36" t="n">
         <v>53</v>
       </c>
       <c r="M36" t="n">
-        <v>47.7999999999999972</v>
+        <v>47.8</v>
       </c>
       <c r="N36" t="n">
         <v>41.5</v>
       </c>
       <c r="O36" t="n">
-        <v>57.0166666666666586</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" t="s">
-        <v>86</v>
+        <v>57.01666666666666</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Ohio</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>OH</t>
+        </is>
       </c>
       <c r="C37" t="n">
-        <v>87.7000000000000028</v>
+        <v>87.7</v>
       </c>
       <c r="D37" t="n">
-        <v>92.7000000000000028</v>
+        <v>92.7</v>
       </c>
       <c r="E37" t="n">
         <v>97.5</v>
       </c>
       <c r="F37" t="n">
-        <v>100.400000000000006</v>
+        <v>100.4</v>
       </c>
       <c r="G37" t="n">
-        <v>102.400000000000006</v>
+        <v>102.4</v>
       </c>
       <c r="H37" t="n">
         <v>101.5</v>
@@ -2505,77 +2261,85 @@
         <v>97.5</v>
       </c>
       <c r="J37" t="n">
-        <v>93.0999999999999943</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="K37" t="n">
         <v>89.5</v>
       </c>
       <c r="L37" t="n">
-        <v>82.7000000000000028</v>
+        <v>82.7</v>
       </c>
       <c r="M37" t="n">
-        <v>75.2999999999999972</v>
+        <v>75.3</v>
       </c>
       <c r="N37" t="n">
         <v>63.5</v>
       </c>
       <c r="O37" t="n">
-        <v>90.3166666666666629</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" t="s">
-        <v>88</v>
+        <v>90.31666666666666</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Oklahoma</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
       </c>
       <c r="C38" t="n">
-        <v>108.700000000000003</v>
+        <v>108.7</v>
       </c>
       <c r="D38" t="n">
-        <v>114.400000000000006</v>
+        <v>114.4</v>
       </c>
       <c r="E38" t="n">
-        <v>111.299999999999997</v>
+        <v>111.3</v>
       </c>
       <c r="F38" t="n">
         <v>115</v>
       </c>
       <c r="G38" t="n">
-        <v>119.599999999999994</v>
+        <v>119.6</v>
       </c>
       <c r="H38" t="n">
-        <v>122.299999999999997</v>
+        <v>122.3</v>
       </c>
       <c r="I38" t="n">
-        <v>127.400000000000006</v>
+        <v>127.4</v>
       </c>
       <c r="J38" t="n">
-        <v>123.299999999999997</v>
+        <v>123.3</v>
       </c>
       <c r="K38" t="n">
-        <v>110.900000000000006</v>
+        <v>110.9</v>
       </c>
       <c r="L38" t="n">
-        <v>104.400000000000006</v>
+        <v>104.4</v>
       </c>
       <c r="M38" t="n">
-        <v>97.9000000000000057</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="N38" t="n">
-        <v>88.0999999999999943</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="O38" t="n">
-        <v>111.941666666666706</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" t="s">
-        <v>90</v>
+        <v>111.9416666666667</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Oregon</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
       </c>
       <c r="C39" t="n">
         <v>91</v>
@@ -2584,72 +2348,76 @@
         <v>95.5</v>
       </c>
       <c r="E39" t="n">
-        <v>99.0999999999999943</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>99.2999999999999972</v>
+        <v>99.3</v>
       </c>
       <c r="G39" t="n">
-        <v>101.200000000000003</v>
+        <v>101.2</v>
       </c>
       <c r="H39" t="n">
-        <v>100.700000000000003</v>
+        <v>100.7</v>
       </c>
       <c r="I39" t="n">
-        <v>98.7000000000000028</v>
+        <v>98.7</v>
       </c>
       <c r="J39" t="n">
-        <v>94.2000000000000028</v>
+        <v>94.2</v>
       </c>
       <c r="K39" t="n">
-        <v>91.9000000000000057</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="L39" t="n">
-        <v>84.2000000000000028</v>
+        <v>84.2</v>
       </c>
       <c r="M39" t="n">
-        <v>76.2999999999999972</v>
+        <v>76.3</v>
       </c>
       <c r="N39" t="n">
-        <v>66.0999999999999943</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="O39" t="n">
-        <v>91.5166666666666799</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" t="s">
-        <v>91</v>
-      </c>
-      <c r="B40" t="s">
-        <v>92</v>
+        <v>91.51666666666667</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Pennsylvania</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
       </c>
       <c r="C40" t="n">
         <v>69.5</v>
       </c>
       <c r="D40" t="n">
-        <v>73.7000000000000028</v>
+        <v>73.7</v>
       </c>
       <c r="E40" t="n">
         <v>76.5</v>
       </c>
       <c r="F40" t="n">
-        <v>78.0999999999999943</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="G40" t="n">
         <v>81</v>
       </c>
       <c r="H40" t="n">
-        <v>81.7000000000000028</v>
+        <v>81.7</v>
       </c>
       <c r="I40" t="n">
-        <v>83.2999999999999972</v>
+        <v>83.3</v>
       </c>
       <c r="J40" t="n">
-        <v>81.5999999999999943</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K40" t="n">
-        <v>79.9000000000000057</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="L40" t="n">
         <v>75.5</v>
@@ -2658,83 +2426,91 @@
         <v>69.5</v>
       </c>
       <c r="N40" t="n">
-        <v>57.7000000000000028</v>
+        <v>57.7</v>
       </c>
       <c r="O40" t="n">
-        <v>75.6666666666666572</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" t="s">
-        <v>93</v>
-      </c>
-      <c r="B41" t="s">
-        <v>94</v>
+        <v>75.66666666666666</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Rhode Island</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>RI</t>
+        </is>
       </c>
       <c r="C41" t="n">
-        <v>78.7000000000000028</v>
+        <v>78.7</v>
       </c>
       <c r="D41" t="n">
-        <v>82.2000000000000028</v>
+        <v>82.2</v>
       </c>
       <c r="E41" t="n">
-        <v>82.9000000000000057</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="F41" t="n">
         <v>82.5</v>
       </c>
       <c r="G41" t="n">
-        <v>82.7000000000000028</v>
+        <v>82.7</v>
       </c>
       <c r="H41" t="n">
         <v>82.5</v>
       </c>
       <c r="I41" t="n">
-        <v>83.2000000000000028</v>
+        <v>83.2</v>
       </c>
       <c r="J41" t="n">
-        <v>76.9000000000000057</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K41" t="n">
-        <v>72.7999999999999972</v>
+        <v>72.8</v>
       </c>
       <c r="L41" t="n">
-        <v>65.7000000000000028</v>
+        <v>65.7</v>
       </c>
       <c r="M41" t="n">
-        <v>60.2999999999999972</v>
+        <v>60.3</v>
       </c>
       <c r="N41" t="n">
-        <v>51.2000000000000028</v>
+        <v>51.2</v>
       </c>
       <c r="O41" t="n">
         <v>75.13333333333334</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
-      <c r="A42" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" t="s">
-        <v>96</v>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>South Carolina</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
       </c>
       <c r="C42" t="n">
-        <v>90.4000000000000057</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>91.7000000000000028</v>
+        <v>91.7</v>
       </c>
       <c r="E42" t="n">
-        <v>94.0999999999999943</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>95.7999999999999972</v>
+        <v>95.8</v>
       </c>
       <c r="G42" t="n">
-        <v>98.5999999999999943</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="H42" t="n">
-        <v>96.7999999999999972</v>
+        <v>96.8</v>
       </c>
       <c r="I42" t="n">
         <v>104</v>
@@ -2743,86 +2519,94 @@
         <v>103</v>
       </c>
       <c r="K42" t="n">
-        <v>101.299999999999997</v>
+        <v>101.3</v>
       </c>
       <c r="L42" t="n">
-        <v>95.0999999999999943</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="M42" t="n">
-        <v>89.4000000000000057</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="N42" t="n">
-        <v>79.2999999999999972</v>
+        <v>79.3</v>
       </c>
       <c r="O42" t="n">
-        <v>94.9583333333333144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" t="s">
-        <v>97</v>
-      </c>
-      <c r="B43" t="s">
-        <v>98</v>
+        <v>94.95833333333333</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>South Dakota</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
       </c>
       <c r="C43" t="n">
         <v>50</v>
       </c>
       <c r="D43" t="n">
-        <v>49.8999999999999986</v>
+        <v>49.9</v>
       </c>
       <c r="E43" t="n">
-        <v>52.1000000000000014</v>
+        <v>52.1</v>
       </c>
       <c r="F43" t="n">
-        <v>52.2999999999999972</v>
+        <v>52.3</v>
       </c>
       <c r="G43" t="n">
         <v>54</v>
       </c>
       <c r="H43" t="n">
-        <v>55.1000000000000014</v>
+        <v>55.1</v>
       </c>
       <c r="I43" t="n">
-        <v>60.1000000000000014</v>
+        <v>60.1</v>
       </c>
       <c r="J43" t="n">
-        <v>60.6000000000000014</v>
+        <v>60.6</v>
       </c>
       <c r="K43" t="n">
-        <v>61.7000000000000028</v>
+        <v>61.7</v>
       </c>
       <c r="L43" t="n">
-        <v>59.1000000000000014</v>
+        <v>59.1</v>
       </c>
       <c r="M43" t="n">
-        <v>54.7999999999999972</v>
+        <v>54.8</v>
       </c>
       <c r="N43" t="n">
         <v>49</v>
       </c>
       <c r="O43" t="n">
-        <v>54.8916666666666586</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44" t="s">
-        <v>100</v>
+        <v>54.89166666666666</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Tennessee</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
       </c>
       <c r="C44" t="n">
-        <v>124.799999999999997</v>
+        <v>124.8</v>
       </c>
       <c r="D44" t="n">
-        <v>128.800000000000011</v>
+        <v>128.8</v>
       </c>
       <c r="E44" t="n">
-        <v>132.900000000000006</v>
+        <v>132.9</v>
       </c>
       <c r="F44" t="n">
-        <v>138.400000000000006</v>
+        <v>138.4</v>
       </c>
       <c r="G44" t="n">
         <v>140</v>
@@ -2831,45 +2615,49 @@
         <v>138.5</v>
       </c>
       <c r="I44" t="n">
-        <v>136.099999999999994</v>
+        <v>136.1</v>
       </c>
       <c r="J44" t="n">
-        <v>127.099999999999994</v>
+        <v>127.1</v>
       </c>
       <c r="K44" t="n">
-        <v>121.299999999999997</v>
+        <v>121.3</v>
       </c>
       <c r="L44" t="n">
-        <v>114.900000000000006</v>
+        <v>114.9</v>
       </c>
       <c r="M44" t="n">
         <v>107.5</v>
       </c>
       <c r="N44" t="n">
-        <v>94.4000000000000057</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="O44" t="n">
-        <v>125.391666666666694</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" t="s">
-        <v>101</v>
-      </c>
-      <c r="B45" t="s">
-        <v>102</v>
+        <v>125.3916666666667</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
       </c>
       <c r="C45" t="n">
-        <v>66.7999999999999972</v>
+        <v>66.8</v>
       </c>
       <c r="D45" t="n">
-        <v>71.2000000000000028</v>
+        <v>71.2</v>
       </c>
       <c r="E45" t="n">
-        <v>71.2999999999999972</v>
+        <v>71.3</v>
       </c>
       <c r="F45" t="n">
-        <v>71.7999999999999972</v>
+        <v>71.8</v>
       </c>
       <c r="G45" t="n">
         <v>73</v>
@@ -2878,7 +2666,7 @@
         <v>72</v>
       </c>
       <c r="I45" t="n">
-        <v>73.4000000000000057</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="J45" t="n">
         <v>70</v>
@@ -2887,74 +2675,82 @@
         <v>67</v>
       </c>
       <c r="L45" t="n">
-        <v>59.7999999999999972</v>
+        <v>59.8</v>
       </c>
       <c r="M45" t="n">
-        <v>57.6000000000000014</v>
+        <v>57.6</v>
       </c>
       <c r="N45" t="n">
-        <v>53.1000000000000014</v>
+        <v>53.1</v>
       </c>
       <c r="O45" t="n">
         <v>67.25</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
-      <c r="A46" t="s">
-        <v>103</v>
-      </c>
-      <c r="B46" t="s">
-        <v>104</v>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Utah</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>UT</t>
+        </is>
       </c>
       <c r="C46" t="n">
         <v>87</v>
       </c>
       <c r="D46" t="n">
-        <v>89.7999999999999972</v>
+        <v>89.8</v>
       </c>
       <c r="E46" t="n">
-        <v>91.2999999999999972</v>
+        <v>91.3</v>
       </c>
       <c r="F46" t="n">
-        <v>86.9000000000000057</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="G46" t="n">
-        <v>86.5999999999999943</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="H46" t="n">
-        <v>85.2000000000000028</v>
+        <v>85.2</v>
       </c>
       <c r="I46" t="n">
         <v>84.5</v>
       </c>
       <c r="J46" t="n">
-        <v>82.0999999999999943</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K46" t="n">
-        <v>78.7999999999999972</v>
+        <v>78.8</v>
       </c>
       <c r="L46" t="n">
-        <v>74.4000000000000057</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="M46" t="n">
-        <v>70.4000000000000057</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="N46" t="n">
-        <v>63.7999999999999972</v>
+        <v>63.8</v>
       </c>
       <c r="O46" t="n">
-        <v>81.7333333333333201</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" t="s">
-        <v>105</v>
-      </c>
-      <c r="B47" t="s">
-        <v>106</v>
+        <v>81.73333333333332</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Vermont</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>VT</t>
+        </is>
       </c>
       <c r="C47" t="n">
-        <v>56.8999999999999986</v>
+        <v>56.9</v>
       </c>
       <c r="D47" t="n">
         <v>56</v>
@@ -2966,233 +2762,253 @@
         <v>54.5</v>
       </c>
       <c r="G47" t="n">
-        <v>54.1000000000000014</v>
+        <v>54.1</v>
       </c>
       <c r="H47" t="n">
-        <v>53.6000000000000014</v>
+        <v>53.6</v>
       </c>
       <c r="I47" t="n">
-        <v>54.6000000000000014</v>
+        <v>54.6</v>
       </c>
       <c r="J47" t="n">
-        <v>52.2000000000000028</v>
+        <v>52.2</v>
       </c>
       <c r="K47" t="n">
-        <v>50.3999999999999986</v>
+        <v>50.4</v>
       </c>
       <c r="L47" t="n">
-        <v>60.1000000000000014</v>
+        <v>60.1</v>
       </c>
       <c r="M47" t="n">
-        <v>58.6000000000000014</v>
+        <v>58.6</v>
       </c>
       <c r="N47" t="n">
         <v>50.5</v>
       </c>
       <c r="O47" t="n">
-        <v>54.8333333333333428</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48" t="s">
-        <v>107</v>
-      </c>
-      <c r="B48" t="s">
-        <v>108</v>
+        <v>54.83333333333334</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
       </c>
       <c r="C48" t="n">
-        <v>67.2000000000000028</v>
+        <v>67.2</v>
       </c>
       <c r="D48" t="n">
-        <v>70.0999999999999943</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="E48" t="n">
         <v>73</v>
       </c>
       <c r="F48" t="n">
-        <v>74.0999999999999943</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="G48" t="n">
         <v>75.5</v>
       </c>
       <c r="H48" t="n">
-        <v>76.5999999999999943</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="I48" t="n">
-        <v>79.5999999999999943</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="J48" t="n">
-        <v>76.5999999999999943</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="K48" t="n">
         <v>73.5</v>
       </c>
       <c r="L48" t="n">
-        <v>68.0999999999999943</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="M48" t="n">
-        <v>63.3999999999999986</v>
+        <v>63.4</v>
       </c>
       <c r="N48" t="n">
-        <v>52.8999999999999986</v>
+        <v>52.9</v>
       </c>
       <c r="O48" t="n">
-        <v>70.8833333333333258</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="A49" t="s">
-        <v>109</v>
-      </c>
-      <c r="B49" t="s">
-        <v>110</v>
+        <v>70.88333333333333</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
       </c>
       <c r="C49" t="n">
-        <v>80.7999999999999972</v>
+        <v>80.8</v>
       </c>
       <c r="D49" t="n">
-        <v>84.4000000000000057</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>86.5999999999999943</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>86.0999999999999943</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="G49" t="n">
         <v>85</v>
       </c>
       <c r="H49" t="n">
-        <v>81.5999999999999943</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="I49" t="n">
-        <v>78.7000000000000028</v>
+        <v>78.7</v>
       </c>
       <c r="J49" t="n">
-        <v>75.2000000000000028</v>
+        <v>75.2</v>
       </c>
       <c r="K49" t="n">
-        <v>74.2000000000000028</v>
+        <v>74.2</v>
       </c>
       <c r="L49" t="n">
-        <v>69.7999999999999972</v>
+        <v>69.8</v>
       </c>
       <c r="M49" t="n">
-        <v>64.9000000000000057</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="N49" t="n">
-        <v>57.2000000000000028</v>
+        <v>57.2</v>
       </c>
       <c r="O49" t="n">
-        <v>77.0416666666666714</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="A50" t="s">
-        <v>111</v>
-      </c>
-      <c r="B50" t="s">
-        <v>112</v>
+        <v>77.04166666666667</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>West Virginia</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>WV</t>
+        </is>
       </c>
       <c r="C50" t="n">
-        <v>129.900000000000006</v>
+        <v>129.9</v>
       </c>
       <c r="D50" t="n">
-        <v>135.099999999999994</v>
+        <v>135.1</v>
       </c>
       <c r="E50" t="n">
         <v>145.5</v>
       </c>
       <c r="F50" t="n">
-        <v>146.900000000000006</v>
+        <v>146.9</v>
       </c>
       <c r="G50" t="n">
-        <v>143.099999999999994</v>
+        <v>143.1</v>
       </c>
       <c r="H50" t="n">
-        <v>139.599999999999994</v>
+        <v>139.6</v>
       </c>
       <c r="I50" t="n">
-        <v>136.900000000000006</v>
+        <v>136.9</v>
       </c>
       <c r="J50" t="n">
         <v>129</v>
       </c>
       <c r="K50" t="n">
-        <v>126.400000000000006</v>
+        <v>126.4</v>
       </c>
       <c r="L50" t="n">
-        <v>111.299999999999997</v>
+        <v>111.3</v>
       </c>
       <c r="M50" t="n">
         <v>96</v>
       </c>
       <c r="N50" t="n">
-        <v>81.2999999999999972</v>
+        <v>81.3</v>
       </c>
       <c r="O50" t="n">
         <v>126.75</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
-      <c r="A51" t="s">
-        <v>113</v>
-      </c>
-      <c r="B51" t="s">
-        <v>114</v>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Wisconsin</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
       </c>
       <c r="C51" t="n">
-        <v>64.7000000000000028</v>
+        <v>64.7</v>
       </c>
       <c r="D51" t="n">
-        <v>69.2000000000000028</v>
+        <v>69.2</v>
       </c>
       <c r="E51" t="n">
-        <v>70.5999999999999943</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>71.9000000000000057</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>74.4000000000000057</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="H51" t="n">
-        <v>75.2000000000000028</v>
+        <v>75.2</v>
       </c>
       <c r="I51" t="n">
-        <v>76.7999999999999972</v>
+        <v>76.8</v>
       </c>
       <c r="J51" t="n">
-        <v>73.7999999999999972</v>
+        <v>73.8</v>
       </c>
       <c r="K51" t="n">
-        <v>71.9000000000000057</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="L51" t="n">
         <v>67.5</v>
       </c>
       <c r="M51" t="n">
-        <v>62.2000000000000028</v>
+        <v>62.2</v>
       </c>
       <c r="N51" t="n">
-        <v>52.6000000000000014</v>
+        <v>52.6</v>
       </c>
       <c r="O51" t="n">
-        <v>69.2333333333333343</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52" t="s">
-        <v>115</v>
-      </c>
-      <c r="B52" t="s">
-        <v>116</v>
+        <v>69.23333333333333</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Wyoming</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>WY</t>
+        </is>
       </c>
       <c r="C52" t="n">
-        <v>79.9000000000000057</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>80.7999999999999972</v>
+        <v>80.8</v>
       </c>
       <c r="E52" t="n">
         <v>81</v>
@@ -3201,10 +3017,10 @@
         <v>81</v>
       </c>
       <c r="G52" t="n">
-        <v>80.4000000000000057</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="H52" t="n">
-        <v>78.2000000000000028</v>
+        <v>78.2</v>
       </c>
       <c r="I52" t="n">
         <v>80.5</v>
@@ -3213,46 +3029,22 @@
         <v>81.5</v>
       </c>
       <c r="K52" t="n">
-        <v>80.9000000000000057</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="L52" t="n">
-        <v>75.4000000000000057</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="M52" t="n">
-        <v>71.0999999999999943</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="N52" t="n">
-        <v>64.7999999999999972</v>
+        <v>64.8</v>
       </c>
       <c r="O52" t="n">
-        <v>77.9583333333333286</v>
+        <v>77.95833333333333</v>
       </c>
     </row>
   </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1570548361" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.750000" right="0.750000" top="1.000000" bottom="1.000000" header="0.500000" footer="0.500000"/>
-  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1570548361" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1570548361" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-      </ext>
-    </extLst>
-  </headerFooter>
-  <extLst>
-    <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1570548361" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
-        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-      </pm:sheetPrefs>
-    </ext>
-  </extLst>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>